--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d313508-Reviews-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Canoga-Park-CA.h1100596.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,288 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r562112495-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>313508</t>
+  </si>
+  <si>
+    <t>562112495</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Clean, stylish and convenient</t>
+  </si>
+  <si>
+    <t>We stayed for 3 days while on vacation. Our room was spacious, clean and comfortable. At check-in we were able to arrange adjacent rooms for our group. The location was very convenient. We would gladly stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r498666221-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498666221</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My niece </t>
+  </si>
+  <si>
+    <t>My niece is from out of town and I haven't had the need to do hotel comparisons in my neighborhood in over thirty years. So I've been very impressed with the motel 6 in Canoga Park. It's modern, clean, quiet and affordable. She is very attached to her cats and it wasn't easy to find a hotel that allowed cats. My niece is very clean and she keeps her cats living area clean.    The host, Nick, is very cordial and respectful. He answered all questions. He listened when I found a slightly cheaper quote for the hotel on Expedia or Trivago. We're leaving Wednesday and a very nice stay.Thank you, Allison Aries MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My niece is from out of town and I haven't had the need to do hotel comparisons in my neighborhood in over thirty years. So I've been very impressed with the motel 6 in Canoga Park. It's modern, clean, quiet and affordable. She is very attached to her cats and it wasn't easy to find a hotel that allowed cats. My niece is very clean and she keeps her cats living area clean.    The host, Nick, is very cordial and respectful. He answered all questions. He listened when I found a slightly cheaper quote for the hotel on Expedia or Trivago. We're leaving Wednesday and a very nice stay.Thank you, Allison Aries More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r497923453-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497923453</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Dont go here</t>
+  </si>
+  <si>
+    <t>We were traveling long distance,booked and paid ahead online, arrive late and after driving almost 500 miles straight we arrive tired and ready for our rooms, clerk was rude,didn't know motel 6 even had a website denied even with proof that we paid online said motel 6 doesn't do that im lying and to go away we were traveling with a 10 month old baby and we had no where to go at 130 in the morning, they took the money alright but denied us our rooms, contacted customer service and well they didn't keep the light on and didn't return our calls,emails nothing only way we fixed it was called bank , motel 6 is bad across the board esspecialy pecialy this one! Train your employees! !! MoreShow less</t>
+  </si>
+  <si>
+    <t>We were traveling long distance,booked and paid ahead online, arrive late and after driving almost 500 miles straight we arrive tired and ready for our rooms, clerk was rude,didn't know motel 6 even had a website denied even with proof that we paid online said motel 6 doesn't do that im lying and to go away we were traveling with a 10 month old baby and we had no where to go at 130 in the morning, they took the money alright but denied us our rooms, contacted customer service and well they didn't keep the light on and didn't return our calls,emails nothing only way we fixed it was called bank , motel 6 is bad across the board esspecialy pecialy this one! Train your employees! !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r398164996-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>398164996</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Better than what was expected</t>
+  </si>
+  <si>
+    <t>This motel 6 was my first experience of staying in a motel 6 and I was pleasantly surprised. The motel has been recently refurbished with majority of the work completed but some area still under construction. The double twin beds room  had ample space. The room and bathroom were fresh and very clean. I would like if the mattress had had a fitted sheet rather than a flat sheet for peace of mind. Parking is limited especially if arriving late. The wifi was superb and fast. All in all good motel for a one night stay.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r315387032-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>315387032</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Dont stay here</t>
+  </si>
+  <si>
+    <t>Many undesirable people hanging around - alot of "Non Guests" there. Parking is very bad. I had to park on the street one night due to so many "non Guests" using the lot. Late night partying going on all over. Barking dogs in some of the rooms. Had two next to my room that would not stop - owners were never around to stop them from barking. Grounds are dirtyy and unkept with cigarette butts everywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Canoga Park, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Many undesirable people hanging around - alot of "Non Guests" there. Parking is very bad. I had to park on the street one night due to so many "non Guests" using the lot. Late night partying going on all over. Barking dogs in some of the rooms. Had two next to my room that would not stop - owners were never around to stop them from barking. Grounds are dirtyy and unkept with cigarette butts everywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r291435949-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>291435949</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>No Parking - drunks wandering property</t>
+  </si>
+  <si>
+    <t>The room was at least clean, but outside the door was pretty filthy. Very limited parking &amp; an uncaring staff. There were people loitering across the street and yes a drunk came to our door more than once. Traveling with young kids I recommend you steer clear of this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Canoga Park, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>The room was at least clean, but outside the door was pretty filthy. Very limited parking &amp; an uncaring staff. There were people loitering across the street and yes a drunk came to our door more than once. Traveling with young kids I recommend you steer clear of this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r220586757-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>220586757</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>For any motel of this level, one night is it</t>
+  </si>
+  <si>
+    <t>Definitely a no frills motel. The last time I stayed in a Motel 6, it was with two other guys crashing just to make it in the morning to another destination since places were just too expensive. Anyway, had to crash here one night for work in the area since driving in Valley traffic was not something I wanted to do. Anyway, this area can be questionable. There's a few good eateries within walking distance, and a big 99 Cents store nearby. Decent stay, but if you're on vacation, spend the extra bucks will you.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r212553511-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212553511</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>I went by want people were saying that it's an ok place to stay. But not only did we get charge more when checking in but there were police officers all over. Our bed sheets had smoke holes even though it was a non smoking room. The air conditioner did not work well and had a smell to it. The bath room door would not lock. U have to be at the hotel early enough to get a parking space. Just horrible experience. For the money I spend here I could have spend it elsewhere. And it's not really a safe neigther hood. Helicopter at night looking for people. Do not stay here if u have kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went by want people were saying that it's an ok place to stay. But not only did we get charge more when checking in but there were police officers all over. Our bed sheets had smoke holes even though it was a non smoking room. The air conditioner did not work well and had a smell to it. The bath room door would not lock. U have to be at the hotel early enough to get a parking space. Just horrible experience. For the money I spend here I could have spend it elsewhere. And it's not really a safe neigther hood. Helicopter at night looking for people. Do not stay here if u have kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r210956356-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>210956356</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>My stay at the Motel 6 in Canoga Park, California was actually a little better than expected.  Once they fixed the in-house Wi-Fi system the rest of the stay wet pretty smoothly.  The staff was helpful and friendly.  The cleaning staff was great and did everything needed and more.  They were also very quick in getting it done.  The hotel has virtually no security and there were always people walking who didn't seem to be there to sleep.  My room was better than some I have stayed in recently.  The sleeping was ok considering it is on a major street and all.  The hotel was close to a 99 Cents Only store to get some supplies and had all the public transportation needed being on a north/south main street and close to a east/west street also.  The staff made it worth it.  If they upgraded their facilities it could be a bargain.  The wide screen TV made the stay even better.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My stay at the Motel 6 in Canoga Park, California was actually a little better than expected.  Once they fixed the in-house Wi-Fi system the rest of the stay wet pretty smoothly.  The staff was helpful and friendly.  The cleaning staff was great and did everything needed and more.  They were also very quick in getting it done.  The hotel has virtually no security and there were always people walking who didn't seem to be there to sleep.  My room was better than some I have stayed in recently.  The sleeping was ok considering it is on a major street and all.  The hotel was close to a 99 Cents Only store to get some supplies and had all the public transportation needed being on a north/south main street and close to a east/west street also.  The staff made it worth it.  If they upgraded their facilities it could be a bargain.  The wide screen TV made the stay even better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r163234937-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163234937</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>What a place</t>
+  </si>
+  <si>
+    <t>What can we say about this place here is what is good about the place flat screen tv microwave and refrige in room. Now for the bad. motel has I guess 75 rooms and maybe 50 parking spaces so if you are there after 2000 good luck finding parking. Night clerk was very rude on the night i checked in he tried to charge me 3x the quoted night rate. The outside looks like the rest of the area run down and need of lots of paint.not as close to universal studios and holloywood the hotel web site sugessted. In the room that I had the shower Handel was backward (hot was cold cold was hot).I would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>What can we say about this place here is what is good about the place flat screen tv microwave and refrige in room. Now for the bad. motel has I guess 75 rooms and maybe 50 parking spaces so if you are there after 2000 good luck finding parking. Night clerk was very rude on the night i checked in he tried to charge me 3x the quoted night rate. The outside looks like the rest of the area run down and need of lots of paint.not as close to universal studios and holloywood the hotel web site sugessted. In the room that I had the shower Handel was backward (hot was cold cold was hot).I would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r143908318-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143908318</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Our Bed was so uncomfortable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location is ok (30mn drive to Los Angeles).Some good restaurants and services around.BUT the bed we had was really bad!! Last night (out of 3) I decided to sleep on the floor to let my girlfriend sleep alone and potentially sleep better than she did the other nights.Lucky I am not picky and am used to Japanese futon.... We both had a good night. :) Beware : we are thin and light but couldn't sleep properly together in one queen size bed. Also : reception is bad.... The guy we met did not care so much about us...I would not come back at any price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r119919957-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119919957</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>OK Rooms but no parking is extremely limited</t>
+  </si>
+  <si>
+    <t>If it were not for the parking or lack there of this would be a pretty decent place.  Since motel6 is a chain that caters to people who drive around a lot I demand that they have enough spots for each of their room.  This location only has enough parking for about 30 cars and has at least twice as many rooms as that.  i was forced to park at the motel next door which meant a long haul for my bags.  The rooms have been somewhat remodeled as they have the flat screen TV and an updated bathroom but not the wood floors or European style furniture.  The motel looks like it is still very slowly renovating things so this may change in the future.  There are a couple of places to eat and a liquor store across the street.  There is an Indian Night club next door which i suspect is making the parking problem even worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>If it were not for the parking or lack there of this would be a pretty decent place.  Since motel6 is a chain that caters to people who drive around a lot I demand that they have enough spots for each of their room.  This location only has enough parking for about 30 cars and has at least twice as many rooms as that.  i was forced to park at the motel next door which meant a long haul for my bags.  The rooms have been somewhat remodeled as they have the flat screen TV and an updated bathroom but not the wood floors or European style furniture.  The motel looks like it is still very slowly renovating things so this may change in the future.  There are a couple of places to eat and a liquor store across the street.  There is an Indian Night club next door which i suspect is making the parking problem even worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r4989286-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4989286</t>
+  </si>
+  <si>
+    <t>04/18/2006</t>
+  </si>
+  <si>
+    <t>Diminishing returns...</t>
+  </si>
+  <si>
+    <t>When I started here they were very nice.  I started off at the Ramada next door, then switched here because it was cheaper.  The only difference between the two is that the Ramada serves a typical continental breakfast, whereas Motel 6 just has coffee in the lobby.  Everyday I stayed here service downgraded.  After awhile, they downgraded me from a queen bed to a full-size, just because they knew I was a lone and wanted to give the queen-sized bed that I had reserved online to someone else.  Having stayed in four different rooms on the property, I can say that the first two, which were no-smoking queen beds were spacious and had decent, although unreliable, wireless internet.  One of them had a bad tv that you could barely hear because only bass was coming out of the speaker.  The last room was small and had no wireless internet (luckily I was prepared and had my own dsl line).  The tv in the third room would only transmit the Spanish channels.  The fourth room was just sad and there was serious competition between all the trucks jockeying for a space near this area of the hotel.  My last day at the hotel I had to hear the manager ousting a customer for stinking up the room with his dog.  That's when I realized it was time to leave.  The place was decent, so I would grudgingly go back if only...When I started here they were very nice.  I started off at the Ramada next door, then switched here because it was cheaper.  The only difference between the two is that the Ramada serves a typical continental breakfast, whereas Motel 6 just has coffee in the lobby.  Everyday I stayed here service downgraded.  After awhile, they downgraded me from a queen bed to a full-size, just because they knew I was a lone and wanted to give the queen-sized bed that I had reserved online to someone else.  Having stayed in four different rooms on the property, I can say that the first two, which were no-smoking queen beds were spacious and had decent, although unreliable, wireless internet.  One of them had a bad tv that you could barely hear because only bass was coming out of the speaker.  The last room was small and had no wireless internet (luckily I was prepared and had my own dsl line).  The tv in the third room would only transmit the Spanish channels.  The fourth room was just sad and there was serious competition between all the trucks jockeying for a space near this area of the hotel.  My last day at the hotel I had to hear the manager ousting a customer for stinking up the room with his dog.  That's when I realized it was time to leave.  The place was decent, so I would grudgingly go back if only for the price, but I'm afraid that I'd overstayed my welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>When I started here they were very nice.  I started off at the Ramada next door, then switched here because it was cheaper.  The only difference between the two is that the Ramada serves a typical continental breakfast, whereas Motel 6 just has coffee in the lobby.  Everyday I stayed here service downgraded.  After awhile, they downgraded me from a queen bed to a full-size, just because they knew I was a lone and wanted to give the queen-sized bed that I had reserved online to someone else.  Having stayed in four different rooms on the property, I can say that the first two, which were no-smoking queen beds were spacious and had decent, although unreliable, wireless internet.  One of them had a bad tv that you could barely hear because only bass was coming out of the speaker.  The last room was small and had no wireless internet (luckily I was prepared and had my own dsl line).  The tv in the third room would only transmit the Spanish channels.  The fourth room was just sad and there was serious competition between all the trucks jockeying for a space near this area of the hotel.  My last day at the hotel I had to hear the manager ousting a customer for stinking up the room with his dog.  That's when I realized it was time to leave.  The place was decent, so I would grudgingly go back if only...When I started here they were very nice.  I started off at the Ramada next door, then switched here because it was cheaper.  The only difference between the two is that the Ramada serves a typical continental breakfast, whereas Motel 6 just has coffee in the lobby.  Everyday I stayed here service downgraded.  After awhile, they downgraded me from a queen bed to a full-size, just because they knew I was a lone and wanted to give the queen-sized bed that I had reserved online to someone else.  Having stayed in four different rooms on the property, I can say that the first two, which were no-smoking queen beds were spacious and had decent, although unreliable, wireless internet.  One of them had a bad tv that you could barely hear because only bass was coming out of the speaker.  The last room was small and had no wireless internet (luckily I was prepared and had my own dsl line).  The tv in the third room would only transmit the Spanish channels.  The fourth room was just sad and there was serious competition between all the trucks jockeying for a space near this area of the hotel.  My last day at the hotel I had to hear the manager ousting a customer for stinking up the room with his dog.  That's when I realized it was time to leave.  The place was decent, so I would grudgingly go back if only for the price, but I'm afraid that I'd overstayed my welcome.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +930,789 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52718</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Luv2VisitPlaces</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>We stayed for 3 days while on vacation. Our room was spacious, clean and comfortable. At check-in we were able to arrange adjacent rooms for our group. The location was very convenient. We would gladly stay here again.</t>
   </si>
   <si>
+    <t>Allison A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r498666221-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>My niece is from out of town and I haven't had the need to do hotel comparisons in my neighborhood in over thirty years. So I've been very impressed with the motel 6 in Canoga Park. It's modern, clean, quiet and affordable. She is very attached to her cats and it wasn't easy to find a hotel that allowed cats. My niece is very clean and she keeps her cats living area clean.    The host, Nick, is very cordial and respectful. He answered all questions. He listened when I found a slightly cheaper quote for the hotel on Expedia or Trivago. We're leaving Wednesday and a very nice stay.Thank you, Allison Aries More</t>
   </si>
   <si>
+    <t>travelingfamily1996</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r497923453-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>We were traveling long distance,booked and paid ahead online, arrive late and after driving almost 500 miles straight we arrive tired and ready for our rooms, clerk was rude,didn't know motel 6 even had a website denied even with proof that we paid online said motel 6 doesn't do that im lying and to go away we were traveling with a 10 month old baby and we had no where to go at 130 in the morning, they took the money alright but denied us our rooms, contacted customer service and well they didn't keep the light on and didn't return our calls,emails nothing only way we fixed it was called bank , motel 6 is bad across the board esspecialy pecialy this one! Train your employees! !! More</t>
   </si>
   <si>
+    <t>IchCl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r398164996-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Rich B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r315387032-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Many undesirable people hanging around - alot of "Non Guests" there. Parking is very bad. I had to park on the street one night due to so many "non Guests" using the lot. Late night partying going on all over. Barking dogs in some of the rooms. Had two next to my room that would not stop - owners were never around to stop them from barking. Grounds are dirtyy and unkept with cigarette butts everywhere.More</t>
   </si>
   <si>
+    <t>Steven S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r291435949-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>The room was at least clean, but outside the door was pretty filthy. Very limited parking &amp; an uncaring staff. There were people loitering across the street and yes a drunk came to our door more than once. Traveling with young kids I recommend you steer clear of this property. More</t>
   </si>
   <si>
+    <t>d l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r220586757-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>86jacky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r212553511-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>I went by want people were saying that it's an ok place to stay. But not only did we get charge more when checking in but there were police officers all over. Our bed sheets had smoke holes even though it was a non smoking room. The air conditioner did not work well and had a smell to it. The bath room door would not lock. U have to be at the hotel early enough to get a parking space. Just horrible experience. For the money I spend here I could have spend it elsewhere. And it's not really a safe neigther hood. Helicopter at night looking for people. Do not stay here if u have kids.More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r210956356-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>My stay at the Motel 6 in Canoga Park, California was actually a little better than expected.  Once they fixed the in-house Wi-Fi system the rest of the stay wet pretty smoothly.  The staff was helpful and friendly.  The cleaning staff was great and did everything needed and more.  They were also very quick in getting it done.  The hotel has virtually no security and there were always people walking who didn't seem to be there to sleep.  My room was better than some I have stayed in recently.  The sleeping was ok considering it is on a major street and all.  The hotel was close to a 99 Cents Only store to get some supplies and had all the public transportation needed being on a north/south main street and close to a east/west street also.  The staff made it worth it.  If they upgraded their facilities it could be a bargain.  The wide screen TV made the stay even better.More</t>
   </si>
   <si>
+    <t>Lisa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r163234937-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>What can we say about this place here is what is good about the place flat screen tv microwave and refrige in room. Now for the bad. motel has I guess 75 rooms and maybe 50 parking spaces so if you are there after 2000 good luck finding parking. Night clerk was very rude on the night i checked in he tried to charge me 3x the quoted night rate. The outside looks like the rest of the area run down and need of lots of paint.not as close to universal studios and holloywood the hotel web site sugessted. In the room that I had the shower Handel was backward (hot was cold cold was hot).I would not stay there again.More</t>
   </si>
   <si>
+    <t>Maxkepon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r143908318-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t xml:space="preserve">Location is ok (30mn drive to Los Angeles).Some good restaurants and services around.BUT the bed we had was really bad!! Last night (out of 3) I decided to sleep on the floor to let my girlfriend sleep alone and potentially sleep better than she did the other nights.Lucky I am not picky and am used to Japanese futon.... We both had a good night. :) Beware : we are thin and light but couldn't sleep properly together in one queen size bed. Also : reception is bad.... The guy we met did not care so much about us...I would not come back at any price. </t>
   </si>
   <si>
+    <t>Wayne J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r119919957-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -409,6 +445,9 @@
   </si>
   <si>
     <t>If it were not for the parking or lack there of this would be a pretty decent place.  Since motel6 is a chain that caters to people who drive around a lot I demand that they have enough spots for each of their room.  This location only has enough parking for about 30 cars and has at least twice as many rooms as that.  i was forced to park at the motel next door which meant a long haul for my bags.  The rooms have been somewhat remodeled as they have the flat screen TV and an updated bathroom but not the wood floors or European style furniture.  The motel looks like it is still very slowly renovating things so this may change in the future.  There are a couple of places to eat and a liquor store across the street.  There is an Indian Night club next door which i suspect is making the parking problem even worse.More</t>
+  </si>
+  <si>
+    <t>Babbbles</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d313508-r4989286-Motel_6_Canoga_Park-Los_Angeles_California.html</t>
@@ -934,34 +973,38 @@
       <c r="A2" t="n">
         <v>52718</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -980,50 +1023,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52718</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1037,50 +1084,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52718</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1094,50 +1145,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52718</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1151,50 +1206,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52718</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1210,56 +1269,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52718</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1271,56 +1334,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52718</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1338,41 +1405,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52718</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1391,50 +1462,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52718</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1458,50 +1533,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52718</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1515,41 +1594,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52718</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1578,50 +1661,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52718</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1645,50 +1732,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52718</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1710,7 +1801,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
